--- a/reports/Гусев Ф.А.xlsx
+++ b/reports/Гусев Ф.А.xlsx
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,39 +252,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -568,7 +565,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,22 +578,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -615,9 +612,9 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <f>SUM(E2:E18)</f>
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -628,11 +625,11 @@
       <c r="C3" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="11">
-        <v>2</v>
-      </c>
-      <c r="F3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -642,37 +639,39 @@
       <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11">
-        <v>2</v>
-      </c>
-      <c r="F4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="11">
-        <v>4</v>
-      </c>
-      <c r="F5" s="14"/>
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>4</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -682,99 +681,109 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11">
+      <c r="D7" s="14"/>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11">
-        <v>4</v>
-      </c>
-      <c r="F10" s="14"/>
+      <c r="C10" s="6">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="6">
+        <v>6</v>
+      </c>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>8</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11">
-        <v>4</v>
-      </c>
-      <c r="F12" s="14"/>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="6">
+        <v>6</v>
+      </c>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="6">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="6">
+        <v>6</v>
+      </c>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -784,9 +793,11 @@
       <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -796,9 +807,11 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
